--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -35,13 +35,13 @@
     <t>Curso F</t>
   </si>
   <si>
+    <t>Tiene un buen rendimiento</t>
+  </si>
+  <si>
     <t>Tiene un excelente rendimiento</t>
   </si>
   <si>
     <t>Necesita mejorar</t>
-  </si>
-  <si>
-    <t>Necesita mejorar significativamente</t>
   </si>
 </sst>
 </file>
@@ -405,8 +405,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="1" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -431,42 +432,42 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>20.27997589111328</v>
+        <v>14.72677707672119</v>
       </c>
       <c r="B2">
-        <v>20.65173530578613</v>
+        <v>14.99785232543945</v>
       </c>
       <c r="C2">
-        <v>12.34298896789551</v>
+        <v>20.77395820617676</v>
       </c>
       <c r="D2">
-        <v>13.32876873016357</v>
+        <v>11.73354053497314</v>
       </c>
       <c r="E2">
-        <v>11.81088447570801</v>
+        <v>11.11271381378174</v>
       </c>
       <c r="F2">
-        <v>8.597244262695312</v>
+        <v>13.0965576171875</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19.24794387817383</v>
+        <v>15.15277481079102</v>
       </c>
       <c r="B3">
-        <v>19.65406799316406</v>
+        <v>15.37021732330322</v>
       </c>
       <c r="C3">
-        <v>11.76547622680664</v>
+        <v>21.36320686340332</v>
       </c>
       <c r="D3">
-        <v>12.60589694976807</v>
+        <v>12.0574426651001</v>
       </c>
       <c r="E3">
-        <v>11.11594104766846</v>
+        <v>11.40393447875977</v>
       </c>
       <c r="F3">
-        <v>8.14693546295166</v>
+        <v>13.55037212371826</v>
       </c>
     </row>
   </sheetData>
@@ -482,9 +483,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="32.7109375" customWidth="1"/>
-    <col min="3" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="37.7109375" customWidth="1"/>
+    <col min="1" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+    <col min="4" max="6" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -518,10 +519,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -538,10 +539,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
